--- a/EEZ/EEZ_dives & features.xlsx
+++ b/EEZ/EEZ_dives & features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6dcb97cb68ffa8e/Documents/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6dcb97cb68ffa8e/Documents/R/project/EEZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C32C8B1-03F0-48AA-85E5-43284C1D9612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2C32C8B1-03F0-48AA-85E5-43284C1D9612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6541D1D-D41A-45FD-A00E-E46E5649D7E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{982EF4CF-8B08-4930-867B-2B442F3429DF}"/>
   </bookViews>
@@ -17,15 +17,16 @@
     <sheet name="EEZ dives pivot" sheetId="3" r:id="rId2"/>
     <sheet name="EEZ dives" sheetId="4" r:id="rId3"/>
     <sheet name="EEZ features pivot" sheetId="5" r:id="rId4"/>
-    <sheet name="EEZ features" sheetId="1" r:id="rId5"/>
+    <sheet name="EEZ features - species" sheetId="1" r:id="rId5"/>
+    <sheet name="EEZ features - family" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EEZ!$AO$1:$AO$238</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="30" r:id="rId7"/>
+    <pivotCache cacheId="31" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7149" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7155" uniqueCount="990">
   <si>
     <t>ScientificName</t>
   </si>
@@ -3373,13 +3374,60 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Class" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Actinopterygii"/>
+        <s v="Elasmobranchii"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Order" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="14">
+        <s v="Anguilliformes"/>
+        <s v="Aulopiformes"/>
+        <s v="Beryciformes"/>
+        <s v="Gadiformes"/>
+        <s v="Lophiiformes"/>
+        <s v="NA"/>
+        <s v="Notacanthiformes"/>
+        <s v="Ophidiiformes"/>
+        <s v="Perciformes"/>
+        <s v="Pleuronectiformes"/>
+        <s v="Polymixiiformes"/>
+        <s v="Scorpaeniformes"/>
+        <s v="Tetraodontiformes"/>
+        <s v="Squaliformes"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Family" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="28">
+        <s v="Congridae"/>
+        <s v="NA"/>
+        <s v="Synaphobranchidae"/>
+        <s v="Chlorophthalmidae"/>
+        <s v="Trachichthyidae"/>
+        <s v="Macrouridae"/>
+        <s v="Moridae"/>
+        <s v="Chaunacidae"/>
+        <s v="Lophiidae"/>
+        <s v="Ogcocephalidae"/>
+        <s v="Halosauridae"/>
+        <s v="Bythitidae"/>
+        <s v="Ophidiidae"/>
+        <s v="Caproidae"/>
+        <s v="Labridae"/>
+        <s v="Callanthiidae"/>
+        <s v="Carangidae"/>
+        <s v="Cepolidae"/>
+        <s v="Epigonidae"/>
+        <s v="Serranidae"/>
+        <s v="Symphysanodontidae"/>
+        <s v="Percophidae"/>
+        <s v="Cynoglossidae"/>
+        <s v="Polymixiidae"/>
+        <s v="Scorpaenidae"/>
+        <s v="Setarchidae"/>
+        <s v="Triacanthodidae"/>
+        <s v="Squalidae"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Genus" numFmtId="0">
       <sharedItems/>
@@ -13675,9 +13723,9 @@
     <s v="Species"/>
     <n v="271746"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Congridae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="Conger"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -13719,9 +13767,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-10"/>
@@ -13763,9 +13811,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-14"/>
@@ -13807,9 +13855,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2016-03-15"/>
@@ -13851,9 +13899,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-21"/>
@@ -13895,9 +13943,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-25"/>
@@ -13939,9 +13987,9 @@
     <s v="Order"/>
     <n v="10295"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID; or Moridae; only tail visible"/>
     <s v="2018-11-20"/>
@@ -13983,9 +14031,9 @@
     <s v="Species"/>
     <n v="126324"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="Ilyophis"/>
     <s v="NA"/>
     <s v="2016-03-18"/>
@@ -14027,9 +14075,9 @@
     <s v="Genus"/>
     <n v="125654"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="Ilyophis"/>
     <s v="NA"/>
     <s v="2016-04-05"/>
@@ -14071,9 +14119,9 @@
     <s v="Genus"/>
     <n v="125654"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="Ilyophis"/>
     <s v="NA"/>
     <s v="2016-04-05"/>
@@ -14115,9 +14163,9 @@
     <s v="Subfamily"/>
     <n v="151826"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-11"/>
@@ -14159,9 +14207,9 @@
     <s v="Family"/>
     <n v="125436"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-17"/>
@@ -14203,9 +14251,9 @@
     <s v="Family"/>
     <n v="125436"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-21"/>
@@ -14247,9 +14295,9 @@
     <s v="Species"/>
     <n v="221388"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Anguilliformes"/>
-    <s v="Synaphobranchidae"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="Synaphobranchus"/>
     <s v="NA"/>
     <s v="2018-08-28"/>
@@ -14291,9 +14339,9 @@
     <s v="Genus"/>
     <n v="125664"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Aulopiformes"/>
-    <s v="Chlorophthalmidae"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="Chlorophthalmus"/>
     <s v="possible C. proridens"/>
     <s v="2018-11-19"/>
@@ -14335,9 +14383,9 @@
     <s v="Family"/>
     <n v="125459"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Beryciformes"/>
-    <s v="Trachichthyidae"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -14379,9 +14427,9 @@
     <s v="Genus"/>
     <n v="125748"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Coryphaenoides"/>
     <s v="NA"/>
     <s v="2018-09-06"/>
@@ -14423,9 +14471,9 @@
     <s v="Genus"/>
     <n v="156705"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Kumba"/>
     <s v="Tentative ID"/>
     <s v="2016-03-29"/>
@@ -14467,9 +14515,9 @@
     <s v="Genus"/>
     <n v="156705"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Kumba"/>
     <s v="Tentative ID"/>
     <s v="2016-03-29"/>
@@ -14511,9 +14559,9 @@
     <s v="Genus"/>
     <n v="156705"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Kumba"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -14555,9 +14603,9 @@
     <s v="Genus"/>
     <n v="156705"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Kumba"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -14599,9 +14647,9 @@
     <s v="Family"/>
     <n v="125471"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-15"/>
@@ -14643,9 +14691,9 @@
     <s v="Family"/>
     <n v="125471"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-16"/>
@@ -14687,9 +14735,9 @@
     <s v="Family"/>
     <n v="125471"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-18"/>
@@ -14731,9 +14779,9 @@
     <s v="Family"/>
     <n v="125471"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-24"/>
@@ -14775,9 +14823,9 @@
     <s v="Family"/>
     <n v="125471"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-15"/>
@@ -14819,9 +14867,9 @@
     <s v="Genus"/>
     <n v="125754"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Macrouridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
     <s v="Nezumia"/>
     <s v="Tentative ID"/>
     <s v="2016-03-11"/>
@@ -14863,9 +14911,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -14907,9 +14955,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -14951,9 +14999,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -14995,9 +15043,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -15039,9 +15087,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -15083,9 +15131,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -15127,9 +15175,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -15171,9 +15219,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="Tentative ID"/>
     <s v="2018-11-23"/>
@@ -15215,9 +15263,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -15259,9 +15307,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15303,9 +15351,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15347,9 +15395,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15391,9 +15439,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15435,9 +15483,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -15479,9 +15527,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15523,9 +15571,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -15567,9 +15615,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -15611,9 +15659,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -15655,9 +15703,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -15699,9 +15747,9 @@
     <s v="Species"/>
     <n v="272478"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Laemonema"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -15743,9 +15791,9 @@
     <s v="Genus"/>
     <n v="125770"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Physiculus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -15787,9 +15835,9 @@
     <s v="Genus"/>
     <n v="125770"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Physiculus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -15831,9 +15879,9 @@
     <s v="Genus"/>
     <n v="125770"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Gadiformes"/>
-    <s v="Moridae"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
     <s v="Physiculus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -15875,9 +15923,9 @@
     <s v="Species"/>
     <n v="280133"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Chaunacidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
     <s v="Chaunacops"/>
     <s v="NA"/>
     <s v="2018-09-06"/>
@@ -15919,9 +15967,9 @@
     <s v="Species"/>
     <n v="217857"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Chaunacidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
     <s v="Chaunax"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -15963,9 +16011,9 @@
     <s v="Species"/>
     <n v="217857"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Chaunacidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
     <s v="Chaunax"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -16007,9 +16055,9 @@
     <s v="Species"/>
     <n v="217857"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Chaunacidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
     <s v="Chaunax"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -16051,9 +16099,9 @@
     <s v="Species"/>
     <n v="217857"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Chaunacidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
     <s v="Chaunax"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -16095,9 +16143,9 @@
     <s v="Species"/>
     <n v="278530"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -16139,9 +16187,9 @@
     <s v="Species"/>
     <n v="278530"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -16183,9 +16231,9 @@
     <s v="Genus"/>
     <n v="205817"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -16227,9 +16275,9 @@
     <s v="Genus"/>
     <n v="205817"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -16271,9 +16319,9 @@
     <s v="Genus"/>
     <n v="205817"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -16315,9 +16363,9 @@
     <s v="Genus"/>
     <n v="205817"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -16359,9 +16407,9 @@
     <s v="Genus"/>
     <n v="205817"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Lophiodes"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -16403,9 +16451,9 @@
     <s v="Species"/>
     <n v="282815"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Lophiidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="8"/>
     <s v="Sladenia"/>
     <s v="NA"/>
     <s v="2016-03-07"/>
@@ -16447,9 +16495,9 @@
     <s v="Species"/>
     <n v="282828"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Lophiiformes"/>
-    <s v="Ogcocephalidae"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
     <s v="Solocisquama"/>
     <s v="NA"/>
     <s v="2016-03-05"/>
@@ -16491,9 +16539,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-10"/>
@@ -16535,9 +16583,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-14"/>
@@ -16579,9 +16627,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-15"/>
@@ -16623,9 +16671,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -16667,9 +16715,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -16711,9 +16759,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="orange; B. Mundy identified as percomorphaceaen fish"/>
     <s v="2018-11-17"/>
@@ -16755,9 +16803,9 @@
     <s v="Class"/>
     <n v="10194"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="NA"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -16799,9 +16847,9 @@
     <s v="Genus"/>
     <n v="125837"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Notacanthiformes"/>
-    <s v="Halosauridae"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="10"/>
     <s v="Aldrovandia"/>
     <s v="Tentative ID"/>
     <s v="2018-11-19"/>
@@ -16843,9 +16891,9 @@
     <s v="Genus"/>
     <n v="158993"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Bythitidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="11"/>
     <s v="Diplacanthopoma"/>
     <s v="NA"/>
     <s v="2016-03-29"/>
@@ -16887,9 +16935,9 @@
     <s v="Family"/>
     <n v="125503"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Bythitidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="11"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2016-03-14"/>
@@ -16931,9 +16979,9 @@
     <s v="Genus"/>
     <n v="159061"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Bassogigas"/>
     <s v="Bassogigas sp.1"/>
     <s v="2016-01-13"/>
@@ -16975,9 +17023,9 @@
     <s v="Genus"/>
     <n v="159061"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Bassogigas"/>
     <s v="Tentative ID"/>
     <s v="2018-08-28"/>
@@ -17019,9 +17067,9 @@
     <s v="Species"/>
     <n v="712476"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Bassogigas"/>
     <s v="NA"/>
     <s v="2016-03-25"/>
@@ -17063,9 +17111,9 @@
     <s v="Genus"/>
     <n v="125856"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Bassozetus"/>
     <s v="Bassozetus sp.1"/>
     <s v="2016-03-24"/>
@@ -17107,9 +17155,9 @@
     <s v="Species"/>
     <n v="280691"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Epetriodus"/>
     <s v="NA"/>
     <s v="2016-03-11"/>
@@ -17151,9 +17199,9 @@
     <s v="Species"/>
     <n v="280691"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Epetriodus"/>
     <s v="Tentative ID"/>
     <s v="2016-03-23"/>
@@ -17195,9 +17243,9 @@
     <s v="Genus"/>
     <n v="125861"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Lamprogrammus"/>
     <s v="NA"/>
     <s v="2016-03-04"/>
@@ -17239,9 +17287,9 @@
     <s v="Family"/>
     <n v="125505"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-08-29"/>
@@ -17283,9 +17331,9 @@
     <s v="Genus"/>
     <n v="125865"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Ophidiiformes"/>
-    <s v="Ophidiidae"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="12"/>
     <s v="Spectrunculus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -17327,9 +17375,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -17371,9 +17419,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -17415,9 +17463,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -17459,9 +17507,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -17503,9 +17551,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17547,9 +17595,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17591,9 +17639,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17635,9 +17683,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17679,9 +17727,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17723,9 +17771,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17767,9 +17815,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17811,9 +17859,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17855,9 +17903,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17899,9 +17947,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17943,9 +17991,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -17987,9 +18035,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -18031,9 +18079,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -18075,9 +18123,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -18119,9 +18167,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -18163,9 +18211,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -18207,9 +18255,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -18251,9 +18299,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -18295,9 +18343,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -18339,9 +18387,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18383,9 +18431,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18427,9 +18475,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18471,9 +18519,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18515,9 +18563,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18559,9 +18607,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18603,9 +18651,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18647,9 +18695,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18691,9 +18739,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18735,9 +18783,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18779,9 +18827,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18823,9 +18871,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18867,9 +18915,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18911,9 +18959,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18955,9 +19003,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -18999,9 +19047,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19043,9 +19091,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19087,9 +19135,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19131,9 +19179,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19175,9 +19223,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19219,9 +19267,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19263,9 +19311,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19307,9 +19355,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19351,9 +19399,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19395,9 +19443,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19439,9 +19487,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19483,9 +19531,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19527,9 +19575,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19571,9 +19619,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19615,9 +19663,9 @@
     <s v="Genus"/>
     <n v="126242"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Caproidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="13"/>
     <s v="Antigonia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -19659,9 +19707,9 @@
     <s v="Species"/>
     <n v="273526"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Labridae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="14"/>
     <s v="Bodianus"/>
     <s v="Tentative ID"/>
     <s v="2018-12-03"/>
@@ -19703,9 +19751,9 @@
     <s v="Species"/>
     <n v="273526"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Labridae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="14"/>
     <s v="Bodianus"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -19747,9 +19795,9 @@
     <s v="Species"/>
     <n v="282315"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Labridae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="14"/>
     <s v="Polylepion"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19791,9 +19839,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19835,9 +19883,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -19879,9 +19927,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -19923,9 +19971,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -19967,9 +20015,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20011,9 +20059,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20055,9 +20103,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -20099,9 +20147,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20143,9 +20191,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20187,9 +20235,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20231,9 +20279,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -20275,9 +20323,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20319,9 +20367,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20363,9 +20411,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -20407,9 +20455,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -20451,9 +20499,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -20495,9 +20543,9 @@
     <s v="Species"/>
     <n v="280938"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Callanthiidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="15"/>
     <s v="Grammatonotus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -20539,9 +20587,9 @@
     <s v="Species"/>
     <n v="159484"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Decapterus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -20583,9 +20631,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="Tentative ID"/>
     <s v="2018-11-19"/>
@@ -20627,9 +20675,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="Tentative ID"/>
     <s v="2018-11-23"/>
@@ -20671,9 +20719,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -20715,9 +20763,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -20759,9 +20807,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -20803,9 +20851,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20847,9 +20895,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -20891,9 +20939,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -20935,9 +20983,9 @@
     <s v="Species"/>
     <n v="126816"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Carangidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="16"/>
     <s v="Seriola"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -20979,9 +21027,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Cepolidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="17"/>
     <s v="Owstonia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -21023,9 +21071,9 @@
     <s v="Species"/>
     <n v="273410"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="Bruce Mundy can't confirm species identification"/>
     <s v="2018-11-19"/>
@@ -21067,9 +21115,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -21111,9 +21159,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -21155,9 +21203,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -21199,9 +21247,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -21243,9 +21291,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -21287,9 +21335,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -21331,9 +21379,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -21375,9 +21423,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -21419,9 +21467,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -21463,9 +21511,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -21507,9 +21555,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -21551,9 +21599,9 @@
     <s v="Genus"/>
     <n v="125967"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Epigonidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
     <s v="Epigonus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -21595,9 +21643,9 @@
     <s v="Species"/>
     <n v="322492"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Serranidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="19"/>
     <s v="Zalanthias"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -21639,9 +21687,9 @@
     <s v="Species"/>
     <n v="322492"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Serranidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="19"/>
     <s v="Zalanthias"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -21683,9 +21731,9 @@
     <s v="Species"/>
     <n v="276567"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Symphysanodontidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
     <s v="Symphysanodon"/>
     <s v="Tentative ID"/>
     <s v="2018-11-24"/>
@@ -21727,9 +21775,9 @@
     <s v="Species"/>
     <n v="276567"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Symphysanodontidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
     <s v="Symphysanodon"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -21771,9 +21819,9 @@
     <s v="Species"/>
     <n v="276567"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Symphysanodontidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
     <s v="Symphysanodon"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -21815,9 +21863,9 @@
     <s v="Species"/>
     <n v="276567"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Symphysanodontidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
     <s v="Symphysanodon"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -21859,9 +21907,9 @@
     <s v="Species"/>
     <n v="712805"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Perciformes"/>
-    <s v="Percophidae"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="21"/>
     <s v="Bembrops"/>
     <s v="Tentative ID"/>
     <s v="2018-12-03"/>
@@ -21903,9 +21951,9 @@
     <s v="Genus"/>
     <n v="126113"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Pleuronectiformes"/>
-    <s v="Cynoglossidae"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="22"/>
     <s v="Symphurus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-23"/>
@@ -21947,9 +21995,9 @@
     <s v="Genus"/>
     <n v="126134"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Polymixiiformes"/>
-    <s v="Polymixiidae"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="23"/>
     <s v="Polymixia"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -21991,9 +22039,9 @@
     <s v="Genus"/>
     <n v="126134"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Polymixiiformes"/>
-    <s v="Polymixiidae"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="23"/>
     <s v="Polymixia"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -22035,9 +22083,9 @@
     <s v="Order"/>
     <n v="10329"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="juvenile"/>
     <s v="2018-11-19"/>
@@ -22079,9 +22127,9 @@
     <s v="Order"/>
     <n v="10329"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -22123,9 +22171,9 @@
     <s v="Order"/>
     <n v="10329"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -22167,9 +22215,9 @@
     <s v="Order"/>
     <n v="10329"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="NA"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -22211,9 +22259,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -22255,9 +22303,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -22299,9 +22347,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -22343,9 +22391,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -22387,9 +22435,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -22431,9 +22479,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -22475,9 +22523,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -22519,9 +22567,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -22563,9 +22611,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -22607,9 +22655,9 @@
     <s v="Family"/>
     <n v="125595"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="NA"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -22651,9 +22699,9 @@
     <s v="Species"/>
     <n v="274689"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="Pontinus"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -22695,9 +22743,9 @@
     <s v="Species"/>
     <n v="274689"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="Pontinus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-26"/>
@@ -22739,9 +22787,9 @@
     <s v="Species"/>
     <n v="274689"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="Pontinus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-27"/>
@@ -22783,9 +22831,9 @@
     <s v="Species"/>
     <n v="274689"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="Pontinus"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -22827,9 +22875,9 @@
     <s v="Genus"/>
     <n v="126170"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Scorpaenidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="24"/>
     <s v="Pontinus"/>
     <s v="Tentative ID; juvenile"/>
     <s v="2018-11-19"/>
@@ -22871,9 +22919,9 @@
     <s v="Genus"/>
     <n v="126177"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Setarchidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="25"/>
     <s v="Setarches"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -22915,9 +22963,9 @@
     <s v="Genus"/>
     <n v="126177"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Scorpaeniformes"/>
-    <s v="Setarchidae"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="25"/>
     <s v="Setarches"/>
     <s v="Tentative ID"/>
     <s v="2018-11-23"/>
@@ -22959,9 +23007,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -23003,9 +23051,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -23047,9 +23095,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -23091,9 +23139,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-19"/>
@@ -23135,9 +23183,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -23179,9 +23227,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-20"/>
@@ -23223,9 +23271,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -23267,9 +23315,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -23311,9 +23359,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-24"/>
@@ -23355,9 +23403,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -23399,9 +23447,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -23443,9 +23491,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -23487,9 +23535,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -23531,9 +23579,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-26"/>
@@ -23575,9 +23623,9 @@
     <s v="Species"/>
     <n v="281083"/>
     <s v="Chordata"/>
-    <s v="Actinopterygii"/>
-    <s v="Tetraodontiformes"/>
-    <s v="Triacanthodidae"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="26"/>
     <s v="Hollardia"/>
     <s v="NA"/>
     <s v="2018-11-27"/>
@@ -23619,9 +23667,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Elasmobranchii"/>
-    <s v="Squaliformes"/>
-    <s v="Squalidae"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="27"/>
     <s v="Squalus"/>
     <s v="NA"/>
     <s v="2018-11-17"/>
@@ -23663,9 +23711,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Elasmobranchii"/>
-    <s v="Squaliformes"/>
-    <s v="Squalidae"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="27"/>
     <s v="Squalus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -23707,9 +23755,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Elasmobranchii"/>
-    <s v="Squaliformes"/>
-    <s v="Squalidae"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="27"/>
     <s v="Squalus"/>
     <s v="Tentative ID"/>
     <s v="2018-11-20"/>
@@ -23751,9 +23799,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Elasmobranchii"/>
-    <s v="Squaliformes"/>
-    <s v="Squalidae"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="27"/>
     <s v="Squalus"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -23795,9 +23843,9 @@
     <s v="Species"/>
     <n v="-999"/>
     <s v="Chordata"/>
-    <s v="Elasmobranchii"/>
-    <s v="Squaliformes"/>
-    <s v="Squalidae"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="27"/>
     <s v="Squalus"/>
     <s v="NA"/>
     <s v="2018-11-23"/>
@@ -23838,7 +23886,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C7EB8C1-308E-4346-8077-B7513C08B4DE}" name="PivotTable48" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C7EB8C1-308E-4346-8077-B7513C08B4DE}" name="PivotTable48" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField axis="axisRow" showAll="0">
@@ -24176,10 +24224,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65216C39-22BF-4615-BF62-95F4255AA7EE}" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65216C39-22BF-4615-BF62-95F4255AA7EE}" name="PivotTable9" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="42">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="54">
         <item x="21"/>
         <item x="22"/>
@@ -24240,9 +24288,65 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item x="11"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24287,9 +24391,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="54">
+  <rowItems count="29">
     <i>
       <x/>
     </i>
@@ -24373,81 +24477,6 @@
     </i>
     <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
     </i>
     <i t="grand">
       <x/>
@@ -55598,15 +55627,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA39CFF-F786-4FED-8B93-C14E9628C36D}">
-  <dimension ref="A3:E58"/>
+  <dimension ref="A3:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -55640,98 +55669,94 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
       <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>417</v>
+        <v>659</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5">
-        <v>6</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>485</v>
+        <v>713</v>
       </c>
       <c r="B8" s="5">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
-        <v>134</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+        <v>749</v>
+      </c>
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+        <v>327</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+        <v>169</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
         <v>1</v>
@@ -55739,152 +55764,164 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>823</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>645</v>
+        <v>831</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>755</v>
+      </c>
+      <c r="B14" s="5">
+        <v>23</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>333</v>
+        <v>646</v>
       </c>
       <c r="B16" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="B17" s="5">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="B18" s="5">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
       <c r="E18" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="B19" s="5">
+        <v>28</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>712</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5">
-        <v>120</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
       <c r="E20" s="5">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="5"/>
       <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>435</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>754</v>
+        <v>824</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -55897,468 +55934,139 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>762</v>
+        <v>838</v>
       </c>
       <c r="B24" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>658</v>
+        <v>861</v>
       </c>
       <c r="B25" s="5">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>921</v>
+        <v>799</v>
       </c>
       <c r="B26" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>913</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>809</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
       <c r="E30" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B31" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>923</v>
+      </c>
+      <c r="B32" s="5">
+        <v>19</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>350</v>
+        <v>987</v>
       </c>
       <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+        <v>503</v>
+      </c>
+      <c r="C33" s="5">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
+        <v>21</v>
+      </c>
       <c r="E33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2</v>
-      </c>
-      <c r="E35" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="5">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="B42" s="5">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B44" s="5">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B46" s="5">
-        <v>64</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="B47" s="5">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B51" s="5">
-        <v>6</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B53" s="5">
-        <v>6</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B57" s="5">
-        <v>2</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="B58" s="5">
-        <v>503</v>
-      </c>
-      <c r="C58" s="5">
-        <v>13</v>
-      </c>
-      <c r="D58" s="5">
-        <v>21</v>
-      </c>
-      <c r="E58" s="5">
         <v>537</v>
       </c>
     </row>
@@ -56372,7 +56080,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57145,4 +56853,427 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51102648-3967-47BF-BE6F-2DDF700AFBD0}">
+  <dimension ref="A2:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6">
+        <v>184</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>824</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>838</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>861</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>799</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>913</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>967</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>809</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>923</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>